--- a/assignment-1/results.xlsx
+++ b/assignment-1/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chaya\ATU Galway\gbui-projects-2024\assignment-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCD9667-F20F-45AC-83AD-249A66C3EC67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04B1596-E116-4E5A-B257-6B5320218F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="12900" xr2:uid="{99926DC4-29C1-42AE-BBBD-093A032E451F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{99926DC4-29C1-42AE-BBBD-093A032E451F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,21 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
-  <si>
-    <t>logistic</t>
-  </si>
-  <si>
-    <t>knn</t>
-  </si>
-  <si>
-    <t>svm</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>fold 1</t>
-  </si>
-  <si>
-    <t>knn (wo fold)</t>
   </si>
   <si>
     <t>c 5, gamma 10, rbf</t>
@@ -58,12 +46,36 @@
   <si>
     <t>c 5, gamma 1, rbf</t>
   </si>
+  <si>
+    <t>4 vars</t>
+  </si>
+  <si>
+    <t>4+ vars</t>
+  </si>
+  <si>
+    <t>6 vars</t>
+  </si>
+  <si>
+    <t>c 2, gamma 1, rbf</t>
+  </si>
+  <si>
+    <t>Logistic</t>
+  </si>
+  <si>
+    <t>kNN (without folds)</t>
+  </si>
+  <si>
+    <t>kNN (with folds)</t>
+  </si>
+  <si>
+    <t>SVM</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,9 +85,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFD4D4D4"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -116,6 +133,1002 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IE"/>
+              <a:t>Algorithms vs Average Score</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$3:$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Logistic</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>kNN (without folds)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>kNN (with folds)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$9:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.58840579710144902</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76594202898550701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76659948945317724</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78782608695652101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4476-4E02-9E3D-FF24CF1E07BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1431298320"/>
+        <c:axId val="1336349583"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1431298320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IE"/>
+                  <a:t>Algorithms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1336349583"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1336349583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IE"/>
+                  <a:t>Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1431298320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99575913-59DF-2F78-A0B7-454C8303E475}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -415,35 +1428,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED96714-06E7-4735-AE9A-FA70E0092CD8}">
-  <dimension ref="A3:H8"/>
+  <dimension ref="A3:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -460,13 +1473,13 @@
         <v>0.80144927536231803</v>
       </c>
       <c r="G4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -483,28 +1496,111 @@
         <v>0.74710144927536204</v>
       </c>
       <c r="G5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
+      <c r="B6" s="1">
+        <v>0.602173913043478</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.77187290071207804</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.83260869565217299</v>
+      </c>
+      <c r="G6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
+      <c r="B7" s="1">
+        <v>0.52101449275362299</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.75869565217391299</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.75423274859950096</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.77898550724637605</v>
+      </c>
+      <c r="G7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
+      <c r="B8" s="1">
+        <v>0.63623188405797104</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.76159420289854995</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.78322351319301997</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.77898550724637605</v>
+      </c>
+      <c r="G8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <f>AVERAGE(B4:B8)</f>
+        <v>0.58840579710144902</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:E9" si="0">AVERAGE(C4:C8)</f>
+        <v>0.76594202898550701</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.76659948945317724</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.78782608695652101</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/assignment-1/results.xlsx
+++ b/assignment-1/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chaya\ATU Galway\gbui-projects-2024\assignment-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04B1596-E116-4E5A-B257-6B5320218F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF87FB5-B029-4C4A-9205-CC6EC53AA72D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{99926DC4-29C1-42AE-BBBD-093A032E451F}"/>
   </bookViews>
@@ -36,27 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
-  <si>
-    <t>fold 1</t>
-  </si>
-  <si>
-    <t>c 5, gamma 10, rbf</t>
-  </si>
-  <si>
-    <t>c 5, gamma 1, rbf</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>4 vars</t>
   </si>
   <si>
-    <t>4+ vars</t>
-  </si>
-  <si>
     <t>6 vars</t>
-  </si>
-  <si>
-    <t>c 2, gamma 1, rbf</t>
   </si>
   <si>
     <t>Logistic</t>
@@ -69,6 +54,36 @@
   </si>
   <si>
     <t>SVM</t>
+  </si>
+  <si>
+    <t>k = 1</t>
+  </si>
+  <si>
+    <t>{'svc__C': 5, 'svc__gamma': 10, 'svc__kernel': 'rbf'}</t>
+  </si>
+  <si>
+    <t>{'svc__C': 1, 'svc__gamma': 10, 'svc__kernel': 'rbf'}</t>
+  </si>
+  <si>
+    <t>5 vars</t>
+  </si>
+  <si>
+    <t>For trial 3</t>
+  </si>
+  <si>
+    <t>k = 3</t>
+  </si>
+  <si>
+    <t>{'svc__C': 5, 'svc__gamma': 1, 'svc__kernel': 'rbf'}</t>
+  </si>
+  <si>
+    <t>{'svc__C': 2, 'svc__gamma': 10, 'svc__kernel': 'rbf'}</t>
+  </si>
+  <si>
+    <t>3 vars</t>
+  </si>
+  <si>
+    <t>less vars = more execution time in polynomial for svm - 3 vars</t>
   </si>
 </sst>
 </file>
@@ -251,16 +266,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.58840579710144902</c:v>
+                  <c:v>0.55463768115942003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.76594202898550701</c:v>
+                  <c:v>0.76463768115941999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.76659948945317724</c:v>
+                  <c:v>0.77873443971283163</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.78782608695652101</c:v>
+                  <c:v>0.77492753623188348</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1128,6 +1143,50 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>391432</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>162603</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6506C68-2B72-ACD5-897F-202C5C480D56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8391525" y="1971675"/>
+          <a:ext cx="6496957" cy="4858428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1428,10 +1487,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED96714-06E7-4735-AE9A-FA70E0092CD8}">
-  <dimension ref="A3:J9"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A2:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1442,165 +1502,182 @@
     <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>0.59347826086956501</v>
+        <v>0.51884057971014497</v>
       </c>
       <c r="C4" s="1">
-        <v>0.76231884057971</v>
+        <v>0.77826086956521701</v>
       </c>
       <c r="D4" s="1">
-        <v>0.78177452990554297</v>
+        <v>0.80304546436978996</v>
       </c>
       <c r="E4" s="1">
-        <v>0.80144927536231803</v>
+        <v>0.80652173913043401</v>
       </c>
       <c r="G4" t="s">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" s="1">
-        <v>0.58913043478260796</v>
+        <v>0.59202898550724603</v>
       </c>
       <c r="C5" s="1">
-        <v>0.74710144927536204</v>
+        <v>0.77318840579710102</v>
       </c>
       <c r="D5" s="1">
-        <v>0.74189375485574405</v>
+        <v>0.78226141866591803</v>
       </c>
       <c r="E5" s="1">
-        <v>0.74710144927536204</v>
+        <v>0.78188405797101401</v>
       </c>
       <c r="G5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" s="1">
-        <v>0.602173913043478</v>
+        <v>0.59565217391304304</v>
       </c>
       <c r="C6" s="1">
-        <v>0.8</v>
+        <v>0.75797101449275295</v>
       </c>
       <c r="D6" s="1">
-        <v>0.77187290071207804</v>
+        <v>0.76679693204586696</v>
       </c>
       <c r="E6" s="1">
-        <v>0.83260869565217299</v>
+        <v>0.74420289855072397</v>
       </c>
       <c r="G6" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J6" t="s">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>0.52101449275362299</v>
+        <v>0.54710144927536197</v>
       </c>
       <c r="C7" s="1">
-        <v>0.75869565217391299</v>
+        <v>0.76376811594202898</v>
       </c>
       <c r="D7" s="1">
-        <v>0.75423274859950096</v>
+        <v>0.78782661269123599</v>
       </c>
       <c r="E7" s="1">
-        <v>0.77898550724637605</v>
+        <v>0.78913043478260803</v>
       </c>
       <c r="G7" t="s">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" s="1">
-        <v>0.63623188405797104</v>
+        <v>0.51956521739130401</v>
       </c>
       <c r="C8" s="1">
-        <v>0.76159420289854995</v>
+        <v>0.75</v>
       </c>
       <c r="D8" s="1">
-        <v>0.78322351319301997</v>
+        <v>0.75374177079134697</v>
       </c>
       <c r="E8" s="1">
-        <v>0.77898550724637605</v>
+        <v>0.75289855072463696</v>
       </c>
       <c r="G8" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" t="s">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9">
         <f>AVERAGE(B4:B8)</f>
-        <v>0.58840579710144902</v>
+        <v>0.55463768115942003</v>
       </c>
       <c r="C9">
         <f t="shared" ref="C9:E9" si="0">AVERAGE(C4:C8)</f>
-        <v>0.76594202898550701</v>
+        <v>0.76463768115941999</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>0.76659948945317724</v>
+        <v>0.77873443971283163</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.78782608695652101</v>
+        <v>0.77492753623188348</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L10" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/assignment-1/results.xlsx
+++ b/assignment-1/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chaya\ATU Galway\gbui-projects-2024\assignment-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF87FB5-B029-4C4A-9205-CC6EC53AA72D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4676B46C-A1DB-4F6C-8ABE-2DBC4674DB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{99926DC4-29C1-42AE-BBBD-093A032E451F}"/>
+    <workbookView xWindow="12000" yWindow="0" windowWidth="12000" windowHeight="12900" xr2:uid="{99926DC4-29C1-42AE-BBBD-093A032E451F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>4 vars</t>
   </si>
@@ -153,7 +153,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -266,16 +266,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.55463768115942003</c:v>
+                  <c:v>0.5499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.76463768115941999</c:v>
+                  <c:v>0.76521739130434741</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.77873443971283163</c:v>
+                  <c:v>0.77312677800559571</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.77492753623188348</c:v>
+                  <c:v>0.7708695652173907</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1488,10 +1488,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED96714-06E7-4735-AE9A-FA70E0092CD8}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:L10"/>
+  <dimension ref="A2:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1604,16 +1604,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>0.54710144927536197</v>
+        <v>0.52391304347825995</v>
       </c>
       <c r="C7" s="1">
-        <v>0.76376811594202898</v>
+        <v>0.76666666666666605</v>
       </c>
       <c r="D7" s="1">
-        <v>0.78782661269123599</v>
+        <v>0.75978830415505605</v>
       </c>
       <c r="E7" s="1">
-        <v>0.78913043478260803</v>
+        <v>0.76884057971014497</v>
       </c>
       <c r="G7" t="s">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>6</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1654,24 +1654,38 @@
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9">
         <f>AVERAGE(B4:B8)</f>
-        <v>0.55463768115942003</v>
+        <v>0.5499999999999996</v>
       </c>
       <c r="C9">
         <f t="shared" ref="C9:E9" si="0">AVERAGE(C4:C8)</f>
-        <v>0.76463768115941999</v>
+        <v>0.76521739130434741</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>0.77873443971283163</v>
+        <v>0.77312677800559571</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.77492753623188348</v>
+        <v>0.7708695652173907</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L10" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="1">
+        <v>0.52391304347825995</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.76666666666666605</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.75978830415505605</v>
+      </c>
+      <c r="G38" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
